--- a/Output_testing/R1_201907/Country/HKD/MN/GEORGIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GEORGIA_201907_HKD_MN.xlsx
@@ -810,136 +810,441 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>137.733902</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>52.78620099797318</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>175.037997</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>60.02565755861424</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>167.953677</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>41.31555809906553</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>47.591169</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>39.24917229289607</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-44.6451725239297</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>18.558814</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.112622759268074</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>24.648464</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.45268047377068</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>25.13405</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>6.182819701171639</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>17.24623</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>14.2232323117113</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>28.0113743484838</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>13.05732</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.004187843417484</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>22.179606</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>7.606036731218913</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>53.247879</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>13.09864647069627</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>15.7335</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>12.97566051109777</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-17.16615211071132</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>6.790147</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.602308212743327</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>3.003726</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.030065650693581</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>5.835871</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.435587905343398</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>8.999076000000001</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.421677000639888</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>163.2079925171059</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>5.43192</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.336218476178262</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3.650776</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.010851366705658</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>32.81731133036467</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>6.195751</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.374507313525419</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.799896</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.9601663717377534</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>6.172535</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.518405151743212</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>3.563621</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.938973291779881</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>16.78080003355675</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>21.957338</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>8.415099261824691</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>21.291407</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>7.301447271034997</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>87.33323900000001</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>21.48343266032857</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>2.899737</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.391457900878324</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-95.65688658593135</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>3.485216</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.33570101206711</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>5.309658</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.82083729432391</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.219674</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.3000322047663158</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.825143</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.32993907670285</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>388.2232683208389</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.964915</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.7530491522263885</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.793148</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.957852284830066</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>4.850122</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.193099793096854</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.270283</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.872337462873269</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>7.25906923016959</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.728422</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.662413754177376</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.166482</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.742950152925377</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>2.545342</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.6261382731322498</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.945022</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.604089691334821</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-4.109584989006009</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>49.45603</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>18.95390969277695</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>32.374913</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>11.10230621085048</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>46.790052</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>11.51006126447769</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>14.529386</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.98260909338016</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-54.93554067741786</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1276,601 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>7.4061</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>98.36278510345883</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>22.179606</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>99.85895235202625</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>52.248983</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>99.97228848159439</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>15.7335</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>99.89150881224244</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-12.56811348790572</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0.05533760984567331</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>0.09896773377603427</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.241962809116086</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.08571003812806792</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-89.61650283815588</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.3765785513054741</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, SALTED, IN BRINE, DRIED OR SMOKED; EDIBLE FLOURS AND MEALS OF MEAT OR MEAT OFFAL</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CHEESE AND CURD</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1902,441 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>137.733902</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>54.35466715086847</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>175.037997</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>64.97463237565962</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>167.953677</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>47.41093935697749</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>47.591169</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>45.10867829748163</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-44.6451725239297</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>18.558814</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.323964129651084</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>24.648464</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.149584172999194</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>25.13405</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>7.094985603353239</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>17.24623</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>16.3466176028241</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>28.0113743484838</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>6.790147</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.67963206393781</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>3.003726</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.114992150002782</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5.835871</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.647383558480494</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>8.999076000000001</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>8.529658606591232</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>163.2079925171059</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>5.43192</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.533353924201095</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3.650776</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.460341142705841</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>32.81731133036467</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>6.195751</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.445062388159601</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2.799896</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.03932983928101</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>6.172535</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.742419027621652</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>3.563621</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.377732395334727</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>16.78080003355675</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>21.957338</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>8.665141850908398</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>21.291407</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>7.903434490201267</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>87.33323900000001</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>24.65293390437306</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.899737</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.748478472556631</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-95.65688658593135</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3.485216</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.375389449351992</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>5.309658</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.970961062759877</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1.219674</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.3442966601397013</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>2.825143</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.677775507707788</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>388.2232683208389</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.964915</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.7754249262810307</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.793148</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.036824961330019</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>4.850122</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.369120605891483</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2.270283</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.151858583075391</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>7.25906923016959</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.728422</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.68209642754649</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.166482</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.8042046521960817</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2.545342</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.7185139221737181</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.945022</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.843564121728641</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-4.109584989006009</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>4.819959</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.902126225436006</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.938939</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.090943020214569</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>13.370613</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>3.774334289261288</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.867368</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.769960775181036</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-83.47161803187623</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>50.164019</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>19.79649538785913</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>29.404646</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.91509327535558</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>34.403852</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>9.711719147526782</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>12.64493</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>11.98533449481299</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-42.33390853810837</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2368,513 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>8.212719</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>30.46660235309044</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>9.692254</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>30.94743445243651</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>11.218122</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>45.75452730577082</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>98.1953080624402</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PRINTING AND BOOKBINDING MACHINERY, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>5.7405</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>23.41335421372467</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>RUBBER TYRES, INTERCHANGEABLE TYRE TREADS, TYRE FLAPS AND INNER TUBES FOR WHEELS OF ALL KINDS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.411644340789505</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>2.719258</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>11.0908371661884</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.073237</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>4.377332642849093</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1.453262</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.081394828827903</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>4.20623</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>15.60378929507263</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>5.56531</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>17.77007354868016</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.681932</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.781345782714692</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-84.95615672218001</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>0.6992159999999999</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.444839654951227</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.483024573140432</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>0.650014</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.075499224242995</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.639173</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.606947801210528</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>61.34294902538886</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.7948309328217003</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0.983824</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.649677359401539</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>0.506521</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.61732507694109</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>0.51374</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.095353469864805</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.2630760376035953</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.1058066715389824</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.719353069506848</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>0.6322</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.210515248306912</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.377489</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>5.110050594541978</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.40814</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>4.496200816637073</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.606925735842303</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-63.26817725833579</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.243165292978535</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>25.576713</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>89.43010770020504</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>11.705516</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>43.42377978714939</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>13.02096</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>41.5760158687337</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>0.811758</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.310857519349309</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-92.37873792580537</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
